--- a/DPI_Table_Audit/MstFinTaxiblity_08-10-2024.xlsx
+++ b/DPI_Table_Audit/MstFinTaxiblity_08-10-2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>S.No</t>
   </si>
@@ -52,13 +52,34 @@
     <t>LastUpdatedBy</t>
   </si>
   <si>
-    <t>bigint</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
-    <t>MstFinTaxiblity</t>
+    <t>CreatedBy</t>
+  </si>
+  <si>
+    <t>CreatedOn</t>
+  </si>
+  <si>
+    <t>CreatedByIP</t>
+  </si>
+  <si>
+    <t>LastUpdatedOn</t>
+  </si>
+  <si>
+    <t>LastUpdatedByIP</t>
+  </si>
+  <si>
+    <t>datetime2</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>Static Table Not Needed this Columns</t>
+  </si>
+  <si>
+    <t>MstHMDocumentType</t>
   </si>
 </sst>
 </file>
@@ -162,27 +183,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -503,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,8 +519,8 @@
     <col min="5" max="5" width="18.85546875" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" customWidth="1"/>
     <col min="7" max="7" width="24.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
-    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="19" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="45.140625" customWidth="1"/>
     <col min="11" max="11" width="27.140625" customWidth="1"/>
   </cols>
@@ -564,29 +565,86 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
-        <v>13</v>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="C5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="F5" s="8"/>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
